--- a/StructureDefinition-ms-transplant-timeline-observation.xlsx
+++ b/StructureDefinition-ms-transplant-timeline-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T18:02:56-05:00</t>
+    <t>2022-11-02T14:44:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ms-transplant-timeline-observation.xlsx
+++ b/StructureDefinition-ms-transplant-timeline-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T18:37:26-06:00</t>
+    <t>2024-03-18T10:20:43-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ms-transplant-timeline-observation.xlsx
+++ b/StructureDefinition-ms-transplant-timeline-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="562">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T10:20:43-05:00</t>
+    <t>2024-05-01T13:56:53-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>NMDP (http://bethematch.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -1245,6 +1245,9 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
+    <t>http://fhir.nmdp.org/ig/matchsync/ValueSet/nmdp-transplant-timeline-codes</t>
+  </si>
+  <si>
     <t xml:space="preserve">obs-7
 </t>
   </si>
@@ -1259,15 +1262,6 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>http://fhir.nmdp.org/ig/matchsync/ValueSet/nmdp-transplant-timeline-codes</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2082,7 +2076,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP73"/>
+  <dimension ref="A1:AP72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2093,7 +2087,7 @@
   <cols>
     <col min="1" max="1" width="52.078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.07421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -7385,26 +7379,26 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>391</v>
@@ -7416,7 +7410,7 @@
         <v>90</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>102</v>
@@ -7425,31 +7419,29 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C45" t="s" s="2">
         <v>402</v>
       </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7467,22 +7459,22 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>291</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7507,11 +7499,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7529,7 +7523,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7538,7 +7532,7 @@
         <v>90</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>102</v>
@@ -7547,38 +7541,38 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>398</v>
+        <v>241</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7593,16 +7587,16 @@
         <v>291</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7630,10 +7624,10 @@
         <v>148</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7651,16 +7645,16 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>102</v>
@@ -7669,31 +7663,31 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>241</v>
+        <v>420</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7712,19 +7706,19 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>291</v>
+        <v>424</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7749,13 +7743,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7773,7 +7767,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7791,27 +7785,27 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7822,7 +7816,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7834,20 +7828,18 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>426</v>
+        <v>291</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7871,13 +7863,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7895,13 +7887,13 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
@@ -7913,27 +7905,27 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7959,15 +7951,17 @@
         <v>291</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7994,10 +7988,10 @@
         <v>209</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -8015,7 +8009,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -8033,27 +8027,27 @@
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>439</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8076,20 +8070,18 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>291</v>
+        <v>451</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8113,13 +8105,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -8137,7 +8129,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8155,27 +8147,27 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8198,16 +8190,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8257,7 +8249,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8275,27 +8267,27 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8306,7 +8298,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8318,18 +8310,20 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8377,45 +8371,45 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>102</v>
+        <v>474</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8426,7 +8420,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8438,20 +8432,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>471</v>
+        <v>104</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>472</v>
+        <v>105</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8499,19 +8489,19 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>470</v>
+        <v>107</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
@@ -8520,10 +8510,10 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>478</v>
+        <v>108</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8534,21 +8524,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8560,15 +8550,17 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8617,19 +8609,19 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8652,14 +8644,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>110</v>
+        <v>480</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8672,24 +8664,26 @@
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>112</v>
+        <v>481</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>113</v>
+        <v>482</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8737,7 +8731,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>118</v>
+        <v>483</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8761,7 +8755,7 @@
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8772,46 +8766,42 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>111</v>
+        <v>485</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8859,19 +8849,19 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -8880,10 +8870,10 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>241</v>
+        <v>490</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -8894,10 +8884,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8920,13 +8910,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8977,7 +8967,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8986,7 +8976,7 @@
         <v>90</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>102</v>
@@ -8998,10 +8988,10 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
@@ -9012,10 +9002,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9038,16 +9028,20 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>487</v>
+        <v>291</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9071,13 +9065,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -9095,7 +9089,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -9104,7 +9098,7 @@
         <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
@@ -9113,13 +9107,13 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>79</v>
+        <v>502</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>496</v>
+        <v>421</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -9130,10 +9124,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9144,7 +9138,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9159,16 +9153,16 @@
         <v>291</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9193,13 +9187,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9217,13 +9211,13 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
@@ -9235,13 +9229,13 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -9252,10 +9246,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9266,7 +9260,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9278,19 +9272,17 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>291</v>
+        <v>512</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9315,37 +9307,37 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
@@ -9357,13 +9349,13 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>505</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>423</v>
+        <v>516</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9374,10 +9366,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9400,18 +9392,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>514</v>
+        <v>104</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>517</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9459,7 +9449,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9480,10 +9470,10 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9494,10 +9484,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9508,7 +9498,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9517,18 +9507,20 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>104</v>
+        <v>522</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9577,13 +9569,13 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
@@ -9598,10 +9590,10 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9612,10 +9604,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9638,16 +9630,16 @@
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9697,7 +9689,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9718,10 +9710,10 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9732,10 +9724,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9758,18 +9750,20 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>531</v>
+        <v>469</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9817,7 +9811,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9838,10 +9832,10 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -9852,10 +9846,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9866,7 +9860,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9875,23 +9869,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>471</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>537</v>
+        <v>105</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9939,19 +9929,19 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>536</v>
+        <v>107</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -9960,10 +9950,10 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>541</v>
+        <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>542</v>
+        <v>108</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -9974,21 +9964,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -10000,15 +9990,17 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10057,19 +10049,19 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10092,14 +10084,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>110</v>
+        <v>480</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10112,24 +10104,26 @@
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>111</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>112</v>
+        <v>481</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>113</v>
+        <v>482</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10177,7 +10171,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>118</v>
+        <v>483</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10201,7 +10195,7 @@
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -10212,45 +10206,45 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>114</v>
+        <v>547</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10275,13 +10269,13 @@
         <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -10299,34 +10293,34 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>79</v>
+        <v>548</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10334,10 +10328,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10345,7 +10339,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>90</v>
@@ -10360,19 +10354,19 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>291</v>
+        <v>550</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>548</v>
+        <v>393</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10397,13 +10391,13 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -10421,10 +10415,10 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>90</v>
@@ -10439,27 +10433,27 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>311</v>
+        <v>400</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10479,22 +10473,22 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>552</v>
+        <v>291</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>393</v>
+        <v>556</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10519,13 +10513,13 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -10543,7 +10537,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10552,7 +10546,7 @@
         <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>102</v>
@@ -10561,38 +10555,38 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>398</v>
+        <v>241</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10607,16 +10601,16 @@
         <v>291</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>557</v>
+        <v>413</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>558</v>
+        <v>414</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>559</v>
+        <v>415</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10644,10 +10638,10 @@
         <v>148</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -10665,16 +10659,16 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>102</v>
@@ -10683,31 +10677,31 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>241</v>
+        <v>420</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>79</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10726,19 +10720,19 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>415</v>
+        <v>560</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>416</v>
+        <v>561</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>417</v>
+        <v>472</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>418</v>
+        <v>473</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10763,13 +10757,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10787,7 +10781,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10805,145 +10799,23 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>421</v>
+        <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP73" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP73">
+  <autoFilter ref="A1:AP72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10953,7 +10825,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-ms-transplant-timeline-observation.xlsx
+++ b/StructureDefinition-ms-transplant-timeline-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-01T13:56:53-05:00</t>
+    <t>2024-05-20T10:22:59-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ms-transplant-timeline-observation.xlsx
+++ b/StructureDefinition-ms-transplant-timeline-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-11T17:53:38-06:00</t>
+    <t>2024-12-02T18:31:42-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
